--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docencia\UAGRARIA\UNALM 2025-1\01 Alumnos unalm 2025-1\Visualizar Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742979C9-31BA-4116-9002-7F81F546B39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B34C55-E057-44E1-96F8-DBA0EE37297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="45" windowWidth="29085" windowHeight="7140" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +575,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L2" sqref="L2:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,10 +623,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -649,12 +653,15 @@
       <c r="J2" s="1">
         <v>18</v>
       </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
@@ -681,12 +688,15 @@
       <c r="J3" s="1">
         <v>13</v>
       </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -711,12 +721,15 @@
       <c r="J4" s="1">
         <v>11</v>
       </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
@@ -743,12 +756,15 @@
       <c r="J5" s="1">
         <v>15</v>
       </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
@@ -773,12 +789,15 @@
       <c r="J6" s="1">
         <v>17</v>
       </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -803,12 +822,15 @@
       <c r="J7" s="1">
         <v>10</v>
       </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -833,12 +855,15 @@
       <c r="J8" s="1">
         <v>11</v>
       </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -865,12 +890,15 @@
       <c r="J9" s="1">
         <v>14</v>
       </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
@@ -895,12 +923,15 @@
       <c r="J10" s="1">
         <v>19</v>
       </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
@@ -927,12 +958,15 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
@@ -959,12 +993,15 @@
       <c r="J12" s="1">
         <v>15</v>
       </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
@@ -991,12 +1028,15 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
@@ -1019,12 +1059,15 @@
       <c r="J14" s="1">
         <v>9</v>
       </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
@@ -1051,12 +1094,15 @@
       <c r="J15" s="1">
         <v>5</v>
       </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
@@ -1083,12 +1129,15 @@
       <c r="J16" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
@@ -1113,12 +1162,15 @@
       <c r="J17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
@@ -1145,12 +1197,15 @@
       <c r="J18" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -1177,12 +1232,15 @@
       <c r="J19" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
@@ -1209,12 +1267,15 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="s">
@@ -1241,12 +1302,15 @@
       <c r="J21" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
@@ -1273,12 +1337,15 @@
       <c r="J22" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
@@ -1305,12 +1372,15 @@
       <c r="J23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
@@ -1337,12 +1407,15 @@
       <c r="J24" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="s">
@@ -1368,6 +1441,9 @@
       </c>
       <c r="J25" s="1">
         <v>3</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docencia\UAGRARIA\UNALM 2025-1\01 Alumnos unalm 2025-1\Visualizar Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B34C55-E057-44E1-96F8-DBA0EE37297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A6BC4-9072-4794-9A18-676A6B6AC6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>DNI</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Nota 7</t>
-  </si>
-  <si>
-    <t>contraseña nueva</t>
   </si>
   <si>
     <t>Ingresos</t>
@@ -572,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248F908-6C22-45FD-BEAB-C04CC6264C49}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +581,7 @@
     <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -618,19 +615,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -653,19 +647,19 @@
       <c r="J2" s="1">
         <v>18</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>14</v>
@@ -688,19 +682,19 @@
       <c r="J3" s="1">
         <v>13</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>9</v>
@@ -721,19 +715,19 @@
       <c r="J4" s="1">
         <v>11</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>15</v>
@@ -756,19 +750,19 @@
       <c r="J5" s="1">
         <v>15</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>15</v>
@@ -789,19 +783,19 @@
       <c r="J6" s="1">
         <v>17</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -822,19 +816,19 @@
       <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -855,19 +849,19 @@
       <c r="J8" s="1">
         <v>11</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -890,19 +884,19 @@
       <c r="J9" s="1">
         <v>14</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -923,19 +917,19 @@
       <c r="J10" s="1">
         <v>19</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -958,19 +952,19 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
@@ -993,19 +987,19 @@
       <c r="J12" s="1">
         <v>15</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
         <v>17</v>
@@ -1028,19 +1022,19 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -1059,19 +1053,19 @@
       <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -1094,19 +1088,19 @@
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1">
         <v>20</v>
@@ -1129,19 +1123,19 @@
       <c r="J16" s="1">
         <v>17</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1162,19 +1156,19 @@
       <c r="J17" s="1">
         <v>15</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -1197,19 +1191,19 @@
       <c r="J18" s="1">
         <v>20</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
@@ -1232,19 +1226,19 @@
       <c r="J19" s="1">
         <v>19</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1267,19 +1261,19 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
@@ -1302,19 +1296,19 @@
       <c r="J21" s="1">
         <v>9</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -1337,19 +1331,19 @@
       <c r="J22" s="1">
         <v>9</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -1372,19 +1366,19 @@
       <c r="J23" s="1">
         <v>6</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1407,19 +1401,19 @@
       <c r="J24" s="1">
         <v>12</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1">
         <v>16</v>
@@ -1442,7 +1436,7 @@
       <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="L25" s="3">
+      <c r="K25" s="3">
         <v>0</v>
       </c>
     </row>

--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docencia\UAGRARIA\UNALM 2025-1\01 Alumnos unalm 2025-1\Visualizar Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A296379-E4CD-491E-A8AE-F3F32BFCBDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A78341-C694-44DD-A337-369AD4AC9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="00.0"/>
+    <numFmt numFmtId="164" formatCode="00.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1038,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248F908-6C22-45FD-BEAB-C04CC6264C49}">
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,7 +1412,9 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
         <v>12</v>
@@ -1423,7 +1425,9 @@
       <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>10.9</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="2">
         <v>0</v>
@@ -1439,7 +1443,9 @@
       <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>0</v>
@@ -1466,7 +1472,9 @@
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>16</v>
@@ -1493,7 +1501,9 @@
       <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>0</v>
@@ -1504,7 +1514,9 @@
       <c r="H5" s="3">
         <v>1.3</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2">
         <v>0</v>
@@ -1520,7 +1532,9 @@
       <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>14</v>
@@ -1547,7 +1561,9 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>14</v>
@@ -1574,7 +1590,9 @@
       <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>0</v>
@@ -1585,7 +1603,9 @@
       <c r="H8" s="3">
         <v>1.8</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="2">
         <v>0</v>
@@ -1601,7 +1621,9 @@
       <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>12</v>
@@ -1628,7 +1650,9 @@
       <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>0</v>
@@ -1639,7 +1663,9 @@
       <c r="H10" s="3">
         <v>3.6</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>2.8</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="2">
         <v>0</v>
@@ -1655,7 +1681,9 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>0</v>
@@ -1666,7 +1694,9 @@
       <c r="H11" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2">
         <v>0</v>
@@ -1682,7 +1712,9 @@
       <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>0</v>
@@ -1693,7 +1725,9 @@
       <c r="H12" s="3">
         <v>1.3</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="2">
         <v>0</v>
@@ -1709,7 +1743,9 @@
       <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>17</v>
@@ -1720,7 +1756,9 @@
       <c r="H13" s="3">
         <v>5.6</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>15.5</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2">
         <v>0</v>
@@ -1736,7 +1774,9 @@
       <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>15</v>
@@ -1763,7 +1803,9 @@
       <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>0</v>
@@ -1774,7 +1816,9 @@
       <c r="H15" s="3">
         <v>1.3</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2">
         <v>0</v>
@@ -1790,7 +1834,9 @@
       <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>7</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
         <v>13</v>
@@ -1801,7 +1847,9 @@
       <c r="H16" s="3">
         <v>4.2</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>12.1</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="2">
         <v>0</v>
@@ -1817,7 +1865,9 @@
       <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>7</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
         <v>14</v>
@@ -1844,7 +1894,9 @@
       <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>7</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
         <v>10</v>
@@ -1871,7 +1923,9 @@
       <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>14</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <v>16</v>
@@ -1898,7 +1952,9 @@
       <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
         <v>10</v>
@@ -1909,7 +1965,9 @@
       <c r="H20" s="3">
         <v>6.2</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>12.3</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="2">
         <v>0</v>
@@ -1925,7 +1983,9 @@
       <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
         <v>14</v>
@@ -1952,7 +2012,9 @@
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>11</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
         <v>12</v>
@@ -1979,7 +2041,9 @@
       <c r="C23" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
         <v>0</v>
@@ -1990,7 +2054,9 @@
       <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="2">
         <v>0</v>
@@ -2006,7 +2072,9 @@
       <c r="C24" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>11</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3">
         <v>13</v>
@@ -2017,7 +2085,9 @@
       <c r="H24" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>15.6</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="2">
         <v>0</v>
@@ -2033,7 +2103,9 @@
       <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
         <v>17</v>
@@ -2060,7 +2132,9 @@
       <c r="C26" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3">
         <v>10</v>
@@ -2071,7 +2145,9 @@
       <c r="H26" s="3">
         <v>6.2</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>13.3</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2">
         <v>0</v>
@@ -2087,7 +2163,9 @@
       <c r="C27" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>9</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3">
         <v>16</v>
@@ -2114,7 +2192,9 @@
       <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3">
         <v>15</v>
@@ -2141,7 +2221,9 @@
       <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
         <v>13</v>
@@ -2168,7 +2250,9 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>9</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
         <v>12</v>
@@ -2179,7 +2263,9 @@
       <c r="H30" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>12.3</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="2">
         <v>0</v>
@@ -2195,7 +2281,9 @@
       <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>7</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
         <v>16</v>
@@ -2222,7 +2310,9 @@
       <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>16</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
         <v>16</v>
@@ -2233,7 +2323,9 @@
       <c r="H32" s="3">
         <v>9.1</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <v>8.6</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="2">
         <v>0</v>
@@ -2249,7 +2341,9 @@
       <c r="C33" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>12</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
         <v>15</v>
@@ -2276,7 +2370,9 @@
       <c r="C34" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>9</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
         <v>13</v>
@@ -2303,7 +2399,9 @@
       <c r="C35" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
         <v>16</v>
@@ -2314,7 +2412,9 @@
       <c r="H35" s="3">
         <v>10.9</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>14.1</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="2">
         <v>0</v>
@@ -2330,7 +2430,9 @@
       <c r="C36" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
         <v>10</v>
@@ -2341,7 +2443,9 @@
       <c r="H36" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3">
+        <v>12</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="2">
         <v>0</v>
@@ -2357,7 +2461,9 @@
       <c r="C37" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
         <v>0</v>
@@ -2368,7 +2474,9 @@
       <c r="H37" s="3">
         <v>1.3</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="2">
         <v>0</v>
@@ -2384,7 +2492,9 @@
       <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3">
+        <v>9</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3">
         <v>15</v>
@@ -2395,7 +2505,9 @@
       <c r="H38" s="3">
         <v>5.6</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3">
+        <v>15.6</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="2">
         <v>0</v>
@@ -2411,7 +2523,9 @@
       <c r="C39" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3">
+        <v>11</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
         <v>0</v>
@@ -2438,7 +2552,9 @@
       <c r="C40" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3">
+        <v>6</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3">
         <v>0</v>
@@ -2449,7 +2565,9 @@
       <c r="H40" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <v>9.9</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="2">
         <v>0</v>
@@ -2465,7 +2583,9 @@
       <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3">
+        <v>14</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3">
         <v>10</v>
@@ -2492,7 +2612,9 @@
       <c r="C42" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>13</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3">
         <v>13</v>
@@ -2519,7 +2641,9 @@
       <c r="C43" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3">
+        <v>13</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3">
         <v>13</v>
@@ -2546,7 +2670,9 @@
       <c r="C44" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3">
+        <v>10</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3">
         <v>17</v>
@@ -2557,7 +2683,9 @@
       <c r="H44" s="3">
         <v>3.8</v>
       </c>
-      <c r="I44" s="3"/>
+      <c r="I44" s="3">
+        <v>12.8</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="2">
         <v>0</v>
@@ -2573,7 +2701,9 @@
       <c r="C45" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3">
+        <v>11</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3">
         <v>10</v>
@@ -2584,7 +2714,9 @@
       <c r="H45" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3">
+        <v>14.2</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="2">
         <v>0</v>
@@ -2600,7 +2732,9 @@
       <c r="C46" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3">
+        <v>9</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3">
         <v>16</v>
@@ -2627,7 +2761,9 @@
       <c r="C47" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3">
         <v>13</v>
@@ -2654,7 +2790,9 @@
       <c r="C48" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3">
+        <v>7</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3">
         <v>16</v>
@@ -2665,7 +2803,9 @@
       <c r="H48" s="3">
         <v>18.2</v>
       </c>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3">
+        <v>10.7</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="2">
         <v>0</v>
@@ -2681,7 +2821,9 @@
       <c r="C49" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3">
+        <v>12</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
         <v>16</v>
@@ -2692,7 +2834,9 @@
       <c r="H49" s="3">
         <v>5.3</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3">
+        <v>12.9</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="2">
         <v>0</v>
@@ -2708,7 +2852,9 @@
       <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3">
+        <v>6</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3">
         <v>18</v>
@@ -2735,7 +2881,9 @@
       <c r="C51" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3">
+        <v>9</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3">
         <v>18</v>
@@ -2746,7 +2894,9 @@
       <c r="H51" s="3">
         <v>12</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3">
+        <v>17.5</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="2">
         <v>0</v>
@@ -2762,7 +2912,9 @@
       <c r="C52" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3">
+        <v>9</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3">
         <v>14</v>
@@ -2773,7 +2925,9 @@
       <c r="H52" s="3">
         <v>6</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="2">
         <v>0</v>
@@ -2789,7 +2943,9 @@
       <c r="C53" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3">
         <v>14</v>
@@ -2816,7 +2972,9 @@
       <c r="C54" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3">
+        <v>8</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3">
         <v>14</v>
@@ -2843,7 +3001,9 @@
       <c r="C55" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3">
+        <v>7</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3">
         <v>14</v>
@@ -2854,7 +3014,9 @@
       <c r="H55" s="3">
         <v>7.6</v>
       </c>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3">
+        <v>14.9</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="2">
         <v>0</v>
@@ -2870,7 +3032,9 @@
       <c r="C56" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3">
+        <v>15</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3">
         <v>16</v>
@@ -2881,7 +3045,9 @@
       <c r="H56" s="3">
         <v>8.9</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3">
+        <v>12.9</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="2">
         <v>0</v>
@@ -2897,7 +3063,9 @@
       <c r="C57" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3">
+        <v>9</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3">
         <v>14</v>
@@ -2924,7 +3092,9 @@
       <c r="C58" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3">
+        <v>7</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3">
         <v>14</v>
@@ -2935,7 +3105,9 @@
       <c r="H58" s="3">
         <v>7.3</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3">
+        <v>15.4</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="2">
         <v>0</v>
@@ -2951,7 +3123,9 @@
       <c r="C59" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3">
+        <v>9</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3">
         <v>14</v>
@@ -2978,7 +3152,9 @@
       <c r="C60" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3">
         <v>12</v>
@@ -3005,7 +3181,9 @@
       <c r="C61" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3">
+        <v>11</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3">
         <v>12</v>
@@ -3032,7 +3210,9 @@
       <c r="C62" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3">
+        <v>17</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3">
         <v>14</v>
@@ -3043,7 +3223,9 @@
       <c r="H62" s="3">
         <v>16</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <v>17.100000000000001</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="2">
         <v>0</v>
@@ -3059,7 +3241,9 @@
       <c r="C63" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="3"/>
+      <c r="D63" s="3">
+        <v>9</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3">
         <v>16</v>
@@ -3086,7 +3270,9 @@
       <c r="C64" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3">
         <v>16</v>
@@ -3097,7 +3283,9 @@
       <c r="H64" s="3">
         <v>5.3</v>
       </c>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3">
+        <v>17.100000000000001</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="2">
         <v>0</v>
@@ -3113,7 +3301,9 @@
       <c r="C65" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3">
+        <v>10</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3">
         <v>15</v>
@@ -3140,7 +3330,9 @@
       <c r="C66" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3">
         <v>12</v>
@@ -3151,7 +3343,9 @@
       <c r="H66" s="3">
         <v>6.4</v>
       </c>
-      <c r="I66" s="3"/>
+      <c r="I66" s="3">
+        <v>15.9</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="2">
         <v>0</v>
@@ -3167,7 +3361,9 @@
       <c r="C67" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="3"/>
+      <c r="D67" s="3">
+        <v>8</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3">
         <v>12</v>
@@ -3194,7 +3390,9 @@
       <c r="C68" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="3">
+        <v>8</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3">
         <v>14</v>
@@ -3205,7 +3403,9 @@
       <c r="H68" s="3">
         <v>14</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3">
+        <v>17</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="2">
         <v>0</v>
@@ -3221,7 +3421,9 @@
       <c r="C69" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3">
+        <v>13</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3">
         <v>18</v>
@@ -3248,7 +3450,9 @@
       <c r="C70" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="3"/>
+      <c r="D70" s="3">
+        <v>13</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3">
         <v>15</v>
@@ -3259,7 +3463,9 @@
       <c r="H70" s="3">
         <v>6.2</v>
       </c>
-      <c r="I70" s="3"/>
+      <c r="I70" s="3">
+        <v>8.6</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="2">
         <v>0</v>
@@ -3275,7 +3481,9 @@
       <c r="C71" t="s">
         <v>198</v>
       </c>
-      <c r="D71" s="3"/>
+      <c r="D71" s="3">
+        <v>9</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3">
         <v>16</v>
@@ -3286,7 +3494,9 @@
       <c r="H71" s="3">
         <v>7.6</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3">
+        <v>15.6</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="2">
         <v>0</v>
@@ -3302,7 +3512,9 @@
       <c r="C72" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3">
+        <v>11</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3">
         <v>18</v>
@@ -3313,7 +3525,9 @@
       <c r="H72" s="3">
         <v>13.6</v>
       </c>
-      <c r="I72" s="3"/>
+      <c r="I72" s="3">
+        <v>17.100000000000001</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="2">
         <v>0</v>
@@ -3329,7 +3543,9 @@
       <c r="C73" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3">
+        <v>8</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3">
         <v>14</v>
@@ -3340,7 +3556,9 @@
       <c r="H73" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="I73" s="3"/>
+      <c r="I73" s="3">
+        <v>17</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="2">
         <v>0</v>
@@ -3356,7 +3574,9 @@
       <c r="C74" t="s">
         <v>204</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="3">
+        <v>6</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3">
         <v>15</v>
@@ -3367,7 +3587,9 @@
       <c r="H74" s="3">
         <v>7.8</v>
       </c>
-      <c r="I74" s="3"/>
+      <c r="I74" s="3">
+        <v>9.6</v>
+      </c>
       <c r="J74" s="3"/>
       <c r="K74" s="2">
         <v>0</v>
@@ -3383,7 +3605,9 @@
       <c r="C75" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="3"/>
+      <c r="D75" s="3">
+        <v>14</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3">
         <v>17</v>
@@ -3410,7 +3634,9 @@
       <c r="C76" t="s">
         <v>208</v>
       </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="3">
+        <v>15</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3">
         <v>15</v>
@@ -3421,7 +3647,9 @@
       <c r="H76" s="3">
         <v>3.6</v>
       </c>
-      <c r="I76" s="3"/>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
       <c r="J76" s="3"/>
       <c r="K76" s="2">
         <v>0</v>
@@ -3437,7 +3665,9 @@
       <c r="C77" t="s">
         <v>210</v>
       </c>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3">
+        <v>14</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3">
         <v>16</v>
@@ -3464,7 +3694,9 @@
       <c r="C78" t="s">
         <v>212</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3">
+        <v>15</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3">
         <v>14</v>
@@ -3491,7 +3723,9 @@
       <c r="C79" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3">
+        <v>7</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3">
         <v>15</v>
@@ -3518,7 +3752,9 @@
       <c r="C80" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="3"/>
+      <c r="D80" s="3">
+        <v>11</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3">
         <v>15</v>
@@ -3545,7 +3781,9 @@
       <c r="C81" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3">
         <v>0</v>
@@ -3556,7 +3794,9 @@
       <c r="H81" s="3">
         <v>2.9</v>
       </c>
-      <c r="I81" s="3"/>
+      <c r="I81" s="3">
+        <v>7.6</v>
+      </c>
       <c r="J81" s="3"/>
       <c r="K81" s="2">
         <v>0</v>
@@ -3572,7 +3812,9 @@
       <c r="C82" t="s">
         <v>220</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3">
+        <v>13</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3">
         <v>14</v>
@@ -3599,7 +3841,9 @@
       <c r="C83" t="s">
         <v>222</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3">
         <v>0</v>
@@ -3610,7 +3854,9 @@
       <c r="H83" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I83" s="3"/>
+      <c r="I83" s="3">
+        <v>5.3</v>
+      </c>
       <c r="J83" s="3"/>
       <c r="K83" s="2">
         <v>0</v>
@@ -3626,7 +3872,9 @@
       <c r="C84" t="s">
         <v>224</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3">
+        <v>9</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3">
         <v>17</v>
@@ -3637,7 +3885,9 @@
       <c r="H84" s="3">
         <v>6.9</v>
       </c>
-      <c r="I84" s="3"/>
+      <c r="I84" s="3">
+        <v>16.5</v>
+      </c>
       <c r="J84" s="3"/>
       <c r="K84" s="2">
         <v>0</v>
@@ -3653,7 +3903,9 @@
       <c r="C85" t="s">
         <v>226</v>
       </c>
-      <c r="D85" s="3"/>
+      <c r="D85" s="3">
+        <v>11</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3">
         <v>17</v>
@@ -3664,7 +3916,9 @@
       <c r="H85" s="3">
         <v>7.8</v>
       </c>
-      <c r="I85" s="3"/>
+      <c r="I85" s="3">
+        <v>15.6</v>
+      </c>
       <c r="J85" s="3"/>
       <c r="K85" s="2">
         <v>0</v>
@@ -3680,7 +3934,9 @@
       <c r="C86" t="s">
         <v>228</v>
       </c>
-      <c r="D86" s="3"/>
+      <c r="D86" s="3">
+        <v>9</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3">
         <v>16</v>
@@ -3707,7 +3963,9 @@
       <c r="C87" t="s">
         <v>230</v>
       </c>
-      <c r="D87" s="3"/>
+      <c r="D87" s="3">
+        <v>15</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3">
         <v>15</v>
@@ -3734,7 +3992,9 @@
       <c r="C88" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="3">
+        <v>13</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3">
         <v>0</v>
@@ -3761,7 +4021,9 @@
       <c r="C89" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="3"/>
+      <c r="D89" s="3">
+        <v>13</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3">
         <v>16</v>
@@ -3788,7 +4050,9 @@
       <c r="C90" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3">
+        <v>14</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3">
         <v>16</v>
@@ -3815,7 +4079,9 @@
       <c r="C91" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3">
+        <v>11</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3">
         <v>16</v>
@@ -3842,7 +4108,9 @@
       <c r="C92" t="s">
         <v>39</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3">
         <v>0</v>
@@ -3869,7 +4137,9 @@
       <c r="C93" t="s">
         <v>40</v>
       </c>
-      <c r="D93" s="3"/>
+      <c r="D93" s="3">
+        <v>13</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3">
         <v>16</v>
@@ -3896,7 +4166,9 @@
       <c r="C94" t="s">
         <v>41</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94" s="3">
+        <v>8</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3">
         <v>15</v>
@@ -3923,7 +4195,9 @@
       <c r="C95" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="3">
+        <v>11</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3">
         <v>15</v>
@@ -3950,7 +4224,9 @@
       <c r="C96" t="s">
         <v>43</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3">
+        <v>13</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3">
         <v>16</v>
@@ -3977,7 +4253,9 @@
       <c r="C97" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="3">
+        <v>13</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3">
         <v>15</v>
@@ -4004,7 +4282,9 @@
       <c r="C98" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="3"/>
+      <c r="D98" s="3">
+        <v>8</v>
+      </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3">
         <v>15</v>
@@ -4031,7 +4311,9 @@
       <c r="C99" t="s">
         <v>46</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3">
         <v>0</v>
@@ -4058,7 +4340,9 @@
       <c r="C100" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="3">
+        <v>6</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3">
         <v>15</v>
@@ -4085,7 +4369,9 @@
       <c r="C101" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="3">
+        <v>6</v>
+      </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3">
         <v>15</v>
@@ -4112,7 +4398,9 @@
       <c r="C102" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3">
+        <v>8</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3">
         <v>16</v>
@@ -4139,7 +4427,9 @@
       <c r="C103" t="s">
         <v>50</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3">
+        <v>5</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3">
         <v>16</v>
@@ -4166,7 +4456,9 @@
       <c r="C104" t="s">
         <v>51</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="3">
+        <v>11</v>
+      </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3">
         <v>16</v>
@@ -4193,7 +4485,9 @@
       <c r="C105" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="3">
+        <v>11</v>
+      </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3">
         <v>15</v>
@@ -4220,7 +4514,9 @@
       <c r="C106" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3">
+        <v>11</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3">
         <v>16</v>
@@ -4247,7 +4543,9 @@
       <c r="C107" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="3"/>
+      <c r="D107" s="3">
+        <v>12</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3">
         <v>16</v>
@@ -4274,7 +4572,9 @@
       <c r="C108" t="s">
         <v>55</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3">
+        <v>13</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3">
         <v>16</v>
@@ -4301,7 +4601,9 @@
       <c r="C109" t="s">
         <v>56</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="3">
+        <v>7</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3">
         <v>15</v>
@@ -4328,7 +4630,9 @@
       <c r="C110" t="s">
         <v>57</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="3">
+        <v>12</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3">
         <v>16</v>
@@ -4355,7 +4659,9 @@
       <c r="C111" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="3"/>
+      <c r="D111" s="3">
+        <v>11</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3">
         <v>15</v>
@@ -4382,7 +4688,9 @@
       <c r="C112" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3">
         <v>0</v>
@@ -4393,7 +4701,9 @@
       <c r="H112" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I112" s="3"/>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
       <c r="J112" s="3"/>
       <c r="K112" s="2">
         <v>0</v>
@@ -4409,7 +4719,9 @@
       <c r="C113" t="s">
         <v>234</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="3">
+        <v>10</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3">
         <v>16</v>
@@ -4436,7 +4748,9 @@
       <c r="C114" t="s">
         <v>236</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3">
         <v>0</v>
@@ -4447,7 +4761,9 @@
       <c r="H114" s="3">
         <v>4.2</v>
       </c>
-      <c r="I114" s="3"/>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
       <c r="J114" s="3"/>
       <c r="K114" s="2">
         <v>0</v>
@@ -4463,7 +4779,9 @@
       <c r="C115" t="s">
         <v>238</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="3">
+        <v>12</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3">
         <v>11</v>
@@ -4474,7 +4792,9 @@
       <c r="H115" s="3">
         <v>10.6</v>
       </c>
-      <c r="I115" s="3"/>
+      <c r="I115" s="3">
+        <v>12.8</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="2">
         <v>0</v>
@@ -4490,7 +4810,9 @@
       <c r="C116" t="s">
         <v>240</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="3">
+        <v>10</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3">
         <v>13</v>
@@ -4517,7 +4839,9 @@
       <c r="C117" t="s">
         <v>242</v>
       </c>
-      <c r="D117" s="3"/>
+      <c r="D117" s="3">
+        <v>13</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3">
         <v>14</v>
@@ -4544,7 +4868,9 @@
       <c r="C118" t="s">
         <v>244</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118" s="3">
+        <v>7</v>
+      </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3">
         <v>14</v>
@@ -4571,7 +4897,9 @@
       <c r="C119" t="s">
         <v>246</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="3">
+        <v>10</v>
+      </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3">
         <v>16</v>
@@ -4598,7 +4926,9 @@
       <c r="C120" t="s">
         <v>248</v>
       </c>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3">
+        <v>7</v>
+      </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3">
         <v>0</v>
@@ -4609,7 +4939,9 @@
       <c r="H120" s="3">
         <v>6</v>
       </c>
-      <c r="I120" s="3"/>
+      <c r="I120" s="3">
+        <v>6.9</v>
+      </c>
       <c r="J120" s="3"/>
       <c r="K120" s="2">
         <v>0</v>
@@ -4625,7 +4957,9 @@
       <c r="C121" t="s">
         <v>250</v>
       </c>
-      <c r="D121" s="3"/>
+      <c r="D121" s="3">
+        <v>13</v>
+      </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3">
         <v>0</v>
@@ -4636,7 +4970,9 @@
       <c r="H121" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="I121" s="3"/>
+      <c r="I121" s="3">
+        <v>5.6</v>
+      </c>
       <c r="J121" s="3"/>
       <c r="K121" s="2">
         <v>0</v>
@@ -4652,7 +4988,9 @@
       <c r="C122" t="s">
         <v>252</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="3">
+        <v>7</v>
+      </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3">
         <v>15</v>
@@ -4679,7 +5017,9 @@
       <c r="C123" t="s">
         <v>254</v>
       </c>
-      <c r="D123" s="3"/>
+      <c r="D123" s="3">
+        <v>7</v>
+      </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3">
         <v>13</v>
@@ -4690,7 +5030,9 @@
       <c r="H123" s="3">
         <v>11.3</v>
       </c>
-      <c r="I123" s="3"/>
+      <c r="I123" s="3">
+        <v>11.1</v>
+      </c>
       <c r="J123" s="3"/>
       <c r="K123" s="2">
         <v>0</v>
@@ -4706,7 +5048,9 @@
       <c r="C124" t="s">
         <v>256</v>
       </c>
-      <c r="D124" s="3"/>
+      <c r="D124" s="3">
+        <v>9</v>
+      </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3">
         <v>0</v>
@@ -4717,7 +5061,9 @@
       <c r="H124" s="3">
         <v>3.9</v>
       </c>
-      <c r="I124" s="3"/>
+      <c r="I124" s="3">
+        <v>8.1</v>
+      </c>
       <c r="J124" s="3"/>
       <c r="K124" s="2">
         <v>0</v>
@@ -4733,7 +5079,9 @@
       <c r="C125" t="s">
         <v>258</v>
       </c>
-      <c r="D125" s="3"/>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3">
         <v>0</v>
@@ -4744,7 +5092,9 @@
       <c r="H125" s="3">
         <v>13.8</v>
       </c>
-      <c r="I125" s="3"/>
+      <c r="I125" s="3">
+        <v>14.7</v>
+      </c>
       <c r="J125" s="3"/>
       <c r="K125" s="2">
         <v>0</v>
@@ -4760,7 +5110,9 @@
       <c r="C126" t="s">
         <v>260</v>
       </c>
-      <c r="D126" s="3"/>
+      <c r="D126" s="3">
+        <v>9</v>
+      </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3">
         <v>0</v>
@@ -4771,7 +5123,9 @@
       <c r="H126" s="3">
         <v>6</v>
       </c>
-      <c r="I126" s="3"/>
+      <c r="I126" s="3">
+        <v>7.1</v>
+      </c>
       <c r="J126" s="3"/>
       <c r="K126" s="2">
         <v>0</v>
@@ -4787,7 +5141,9 @@
       <c r="C127" t="s">
         <v>262</v>
       </c>
-      <c r="D127" s="3"/>
+      <c r="D127" s="3">
+        <v>11</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3">
         <v>15</v>
@@ -4814,7 +5170,9 @@
       <c r="C128" t="s">
         <v>264</v>
       </c>
-      <c r="D128" s="3"/>
+      <c r="D128" s="3">
+        <v>11</v>
+      </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3">
         <v>13</v>
@@ -4825,7 +5183,9 @@
       <c r="H128" s="3">
         <v>9.5</v>
       </c>
-      <c r="I128" s="3"/>
+      <c r="I128" s="3">
+        <v>12.5</v>
+      </c>
       <c r="J128" s="3"/>
       <c r="K128" s="2">
         <v>0</v>
@@ -4841,7 +5201,9 @@
       <c r="C129" t="s">
         <v>266</v>
       </c>
-      <c r="D129" s="3"/>
+      <c r="D129" s="3">
+        <v>5</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3">
         <v>14</v>
@@ -4852,7 +5214,9 @@
       <c r="H129" s="3">
         <v>7.1</v>
       </c>
-      <c r="I129" s="3"/>
+      <c r="I129" s="3">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J129" s="3"/>
       <c r="K129" s="2">
         <v>0</v>
@@ -4868,7 +5232,9 @@
       <c r="C130" t="s">
         <v>268</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3">
+        <v>7</v>
+      </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3">
         <v>0</v>
@@ -4895,7 +5261,9 @@
       <c r="C131" t="s">
         <v>270</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="3">
+        <v>13</v>
+      </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3">
         <v>16</v>
@@ -4922,7 +5290,9 @@
       <c r="C132" t="s">
         <v>272</v>
       </c>
-      <c r="D132" s="3"/>
+      <c r="D132" s="3">
+        <v>11</v>
+      </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3">
         <v>13</v>
@@ -4949,7 +5319,9 @@
       <c r="C133" t="s">
         <v>274</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="3">
+        <v>14</v>
+      </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3">
         <v>14</v>
@@ -4960,7 +5332,9 @@
       <c r="H133" s="3">
         <v>7.8</v>
       </c>
-      <c r="I133" s="3"/>
+      <c r="I133" s="3">
+        <v>12.7</v>
+      </c>
       <c r="J133" s="3"/>
       <c r="K133" s="2">
         <v>0</v>
@@ -4976,7 +5350,9 @@
       <c r="C134" t="s">
         <v>276</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3">
         <v>0</v>
@@ -5003,7 +5379,9 @@
       <c r="C135" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="3">
+        <v>8</v>
+      </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3">
         <v>14</v>
@@ -5030,7 +5408,9 @@
       <c r="C136" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="3"/>
+      <c r="D136" s="3">
+        <v>12</v>
+      </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3">
         <v>13</v>
@@ -5057,7 +5437,9 @@
       <c r="C137" t="s">
         <v>282</v>
       </c>
-      <c r="D137" s="3"/>
+      <c r="D137" s="3">
+        <v>6</v>
+      </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3">
         <v>16</v>
@@ -5068,7 +5450,9 @@
       <c r="H137" s="3">
         <v>12</v>
       </c>
-      <c r="I137" s="3"/>
+      <c r="I137" s="3">
+        <v>8.4</v>
+      </c>
       <c r="J137" s="3"/>
       <c r="K137" s="2">
         <v>0</v>
@@ -5084,7 +5468,9 @@
       <c r="C138" t="s">
         <v>284</v>
       </c>
-      <c r="D138" s="3"/>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3">
         <v>0</v>
@@ -5095,7 +5481,9 @@
       <c r="H138" s="3">
         <v>4.2</v>
       </c>
-      <c r="I138" s="3"/>
+      <c r="I138" s="3">
+        <v>3.9</v>
+      </c>
       <c r="J138" s="3"/>
       <c r="K138" s="2">
         <v>0</v>
@@ -5111,7 +5499,9 @@
       <c r="C139" t="s">
         <v>286</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="3">
+        <v>9</v>
+      </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3">
         <v>11</v>
@@ -5122,7 +5512,9 @@
       <c r="H139" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I139" s="3"/>
+      <c r="I139" s="3">
+        <v>9.6</v>
+      </c>
       <c r="J139" s="3"/>
       <c r="K139" s="2">
         <v>0</v>
@@ -5138,7 +5530,9 @@
       <c r="C140" t="s">
         <v>288</v>
       </c>
-      <c r="D140" s="3"/>
+      <c r="D140" s="3">
+        <v>10</v>
+      </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3">
         <v>16</v>
@@ -5165,7 +5559,9 @@
       <c r="C141" t="s">
         <v>290</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="3">
+        <v>5</v>
+      </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3">
         <v>11</v>
@@ -5192,7 +5588,9 @@
       <c r="C142" t="s">
         <v>292</v>
       </c>
-      <c r="D142" s="3"/>
+      <c r="D142" s="3">
+        <v>12</v>
+      </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3">
         <v>16</v>
@@ -5203,7 +5601,9 @@
       <c r="H142" s="3">
         <v>13.3</v>
       </c>
-      <c r="I142" s="3"/>
+      <c r="I142" s="3">
+        <v>12.8</v>
+      </c>
       <c r="J142" s="3"/>
       <c r="K142" s="2">
         <v>0</v>
@@ -5219,7 +5619,9 @@
       <c r="C143" t="s">
         <v>294</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3">
         <v>0</v>
@@ -5246,7 +5648,9 @@
       <c r="C144" t="s">
         <v>296</v>
       </c>
-      <c r="D144" s="3"/>
+      <c r="D144" s="3">
+        <v>11</v>
+      </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3">
         <v>0</v>
@@ -5257,7 +5661,9 @@
       <c r="H144" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I144" s="3"/>
+      <c r="I144" s="3">
+        <v>8.4</v>
+      </c>
       <c r="J144" s="3"/>
       <c r="K144" s="2">
         <v>0</v>
@@ -5273,7 +5679,9 @@
       <c r="C145" t="s">
         <v>298</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="3">
+        <v>8</v>
+      </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3">
         <v>15</v>
@@ -5300,7 +5708,9 @@
       <c r="C146" t="s">
         <v>300</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="3">
+        <v>7</v>
+      </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3">
         <v>14</v>
@@ -5311,7 +5721,9 @@
       <c r="H146" s="3">
         <v>10.9</v>
       </c>
-      <c r="I146" s="3"/>
+      <c r="I146" s="3">
+        <v>15.7</v>
+      </c>
       <c r="J146" s="3"/>
       <c r="K146" s="2">
         <v>0</v>
@@ -5327,7 +5739,9 @@
       <c r="C147" t="s">
         <v>302</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="3">
+        <v>8</v>
+      </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3">
         <v>11</v>
@@ -5354,7 +5768,9 @@
       <c r="C148" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148" s="3">
+        <v>6</v>
+      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3">
         <v>0</v>
@@ -5365,7 +5781,9 @@
       <c r="H148" s="3">
         <v>5.6</v>
       </c>
-      <c r="I148" s="3"/>
+      <c r="I148" s="3">
+        <v>5.6</v>
+      </c>
       <c r="J148" s="3"/>
       <c r="K148" s="2">
         <v>0</v>
@@ -5381,7 +5799,9 @@
       <c r="C149" t="s">
         <v>306</v>
       </c>
-      <c r="D149" s="3"/>
+      <c r="D149" s="3">
+        <v>14</v>
+      </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3">
         <v>16</v>
@@ -5408,7 +5828,9 @@
       <c r="C150" t="s">
         <v>308</v>
       </c>
-      <c r="D150" s="3"/>
+      <c r="D150" s="3">
+        <v>11</v>
+      </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3">
         <v>16</v>
@@ -5419,7 +5841,9 @@
       <c r="H150" s="3">
         <v>8.5</v>
       </c>
-      <c r="I150" s="3"/>
+      <c r="I150" s="3">
+        <v>13.2</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="2">
         <v>0</v>
@@ -5435,7 +5859,9 @@
       <c r="C151" t="s">
         <v>310</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151" s="3">
+        <v>12</v>
+      </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3">
         <v>14</v>
@@ -5462,7 +5888,9 @@
       <c r="C152" t="s">
         <v>312</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="3">
+        <v>10</v>
+      </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3">
         <v>13</v>
@@ -5473,7 +5901,9 @@
       <c r="H152" s="3">
         <v>11.3</v>
       </c>
-      <c r="I152" s="3"/>
+      <c r="I152" s="3">
+        <v>15.5</v>
+      </c>
       <c r="J152" s="3"/>
       <c r="K152" s="2">
         <v>0</v>
@@ -5489,7 +5919,9 @@
       <c r="C153" t="s">
         <v>314</v>
       </c>
-      <c r="D153" s="3"/>
+      <c r="D153" s="3">
+        <v>15</v>
+      </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3">
         <v>0</v>
@@ -5516,7 +5948,9 @@
       <c r="C154" t="s">
         <v>316</v>
       </c>
-      <c r="D154" s="3"/>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3">
         <v>0</v>
@@ -5543,7 +5977,9 @@
       <c r="C155" t="s">
         <v>318</v>
       </c>
-      <c r="D155" s="3"/>
+      <c r="D155" s="3">
+        <v>13</v>
+      </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3">
         <v>0</v>
@@ -5570,7 +6006,9 @@
       <c r="C156" t="s">
         <v>320</v>
       </c>
-      <c r="D156" s="3"/>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3">
         <v>0</v>

--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docencia\UAGRARIA\UNALM 2025-1\01 Alumnos unalm 2025-1\Visualizar Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A78341-C694-44DD-A337-369AD4AC9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23008C53-F9DB-4F35-89F9-8EEADC7BEBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248F908-6C22-45FD-BEAB-C04CC6264C49}">
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G88" s="3">
         <v>8</v>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G111" s="3">
         <v>4</v>

--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docencia\UAGRARIA\UNALM 2025-1\01 Alumnos unalm 2025-1\Visualizar Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23008C53-F9DB-4F35-89F9-8EEADC7BEBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE4B81-4198-434C-82DE-B472827F65AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{444E6E5C-73E1-4C95-A31A-2F378B5AB006}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248F908-6C22-45FD-BEAB-C04CC6264C49}">
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1415,9 @@
       <c r="D2" s="3">
         <v>15</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>13</v>
+      </c>
       <c r="F2" s="3">
         <v>12</v>
       </c>
@@ -1446,7 +1448,9 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -1475,7 +1479,9 @@
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>9</v>
+      </c>
       <c r="F4" s="3">
         <v>16</v>
       </c>
@@ -1504,7 +1510,9 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
@@ -1535,7 +1543,9 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
       <c r="F6" s="3">
         <v>14</v>
       </c>
@@ -1564,7 +1574,9 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
       <c r="F7" s="3">
         <v>14</v>
       </c>
@@ -1593,7 +1605,9 @@
       <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -1624,7 +1638,9 @@
       <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
       <c r="F9" s="3">
         <v>12</v>
       </c>
@@ -1653,7 +1669,9 @@
       <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
@@ -1684,7 +1702,9 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -1715,7 +1735,9 @@
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
@@ -1746,7 +1768,9 @@
       <c r="D13" s="3">
         <v>11</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
       <c r="F13" s="3">
         <v>17</v>
       </c>
@@ -1777,7 +1801,9 @@
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
       <c r="F14" s="3">
         <v>15</v>
       </c>
@@ -1806,7 +1832,9 @@
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -1837,7 +1865,9 @@
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>9</v>
+      </c>
       <c r="F16" s="3">
         <v>13</v>
       </c>
@@ -1868,7 +1898,9 @@
       <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
       <c r="F17" s="3">
         <v>14</v>
       </c>
@@ -1897,7 +1929,9 @@
       <c r="D18" s="3">
         <v>7</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>13</v>
+      </c>
       <c r="F18" s="3">
         <v>10</v>
       </c>
@@ -1926,7 +1960,9 @@
       <c r="D19" s="3">
         <v>14</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
       <c r="F19" s="3">
         <v>16</v>
       </c>
@@ -1955,7 +1991,9 @@
       <c r="D20" s="3">
         <v>8</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
       <c r="F20" s="3">
         <v>10</v>
       </c>
@@ -1986,7 +2024,9 @@
       <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>6</v>
+      </c>
       <c r="F21" s="3">
         <v>14</v>
       </c>
@@ -2015,7 +2055,9 @@
       <c r="D22" s="3">
         <v>11</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
       <c r="F22" s="3">
         <v>12</v>
       </c>
@@ -2044,7 +2086,9 @@
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -2075,7 +2119,9 @@
       <c r="D24" s="3">
         <v>11</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
       <c r="F24" s="3">
         <v>13</v>
       </c>
@@ -2106,7 +2152,9 @@
       <c r="D25" s="3">
         <v>10</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>11</v>
+      </c>
       <c r="F25" s="3">
         <v>17</v>
       </c>
@@ -2135,7 +2183,9 @@
       <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
       <c r="F26" s="3">
         <v>10</v>
       </c>
@@ -2166,7 +2216,9 @@
       <c r="D27" s="3">
         <v>9</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>8</v>
+      </c>
       <c r="F27" s="3">
         <v>16</v>
       </c>
@@ -2195,7 +2247,9 @@
       <c r="D28" s="3">
         <v>6</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
       <c r="F28" s="3">
         <v>15</v>
       </c>
@@ -2224,7 +2278,9 @@
       <c r="D29" s="3">
         <v>10</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
       <c r="F29" s="3">
         <v>13</v>
       </c>
@@ -2253,7 +2309,9 @@
       <c r="D30" s="3">
         <v>9</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>8</v>
+      </c>
       <c r="F30" s="3">
         <v>12</v>
       </c>
@@ -2284,7 +2342,9 @@
       <c r="D31" s="3">
         <v>7</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>8</v>
+      </c>
       <c r="F31" s="3">
         <v>16</v>
       </c>
@@ -2313,7 +2373,9 @@
       <c r="D32" s="3">
         <v>16</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
       <c r="F32" s="3">
         <v>16</v>
       </c>
@@ -2344,7 +2406,9 @@
       <c r="D33" s="3">
         <v>12</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>9</v>
+      </c>
       <c r="F33" s="3">
         <v>15</v>
       </c>
@@ -2373,7 +2437,9 @@
       <c r="D34" s="3">
         <v>9</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
       <c r="F34" s="3">
         <v>13</v>
       </c>
@@ -2402,7 +2468,9 @@
       <c r="D35" s="3">
         <v>5</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>14</v>
+      </c>
       <c r="F35" s="3">
         <v>16</v>
       </c>
@@ -2433,7 +2501,9 @@
       <c r="D36" s="3">
         <v>10</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>7</v>
+      </c>
       <c r="F36" s="3">
         <v>10</v>
       </c>
@@ -2464,7 +2534,9 @@
       <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
@@ -2495,7 +2567,9 @@
       <c r="D38" s="3">
         <v>9</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>7</v>
+      </c>
       <c r="F38" s="3">
         <v>15</v>
       </c>
@@ -2526,7 +2600,9 @@
       <c r="D39" s="3">
         <v>11</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
@@ -2555,7 +2631,9 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3">
+        <v>12</v>
+      </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
@@ -2586,7 +2664,9 @@
       <c r="D41" s="3">
         <v>14</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3">
+        <v>7</v>
+      </c>
       <c r="F41" s="3">
         <v>10</v>
       </c>
@@ -2615,7 +2695,9 @@
       <c r="D42" s="3">
         <v>13</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3">
+        <v>12</v>
+      </c>
       <c r="F42" s="3">
         <v>13</v>
       </c>
@@ -2644,7 +2726,9 @@
       <c r="D43" s="3">
         <v>13</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3">
+        <v>10</v>
+      </c>
       <c r="F43" s="3">
         <v>13</v>
       </c>
@@ -2673,7 +2757,9 @@
       <c r="D44" s="3">
         <v>10</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3">
+        <v>7</v>
+      </c>
       <c r="F44" s="3">
         <v>17</v>
       </c>
@@ -2704,7 +2790,9 @@
       <c r="D45" s="3">
         <v>11</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3">
+        <v>8</v>
+      </c>
       <c r="F45" s="3">
         <v>10</v>
       </c>
@@ -2735,7 +2823,9 @@
       <c r="D46" s="3">
         <v>9</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3">
+        <v>7</v>
+      </c>
       <c r="F46" s="3">
         <v>16</v>
       </c>
@@ -2764,7 +2854,9 @@
       <c r="D47" s="3">
         <v>4</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3">
+        <v>9</v>
+      </c>
       <c r="F47" s="3">
         <v>13</v>
       </c>
@@ -2793,7 +2885,9 @@
       <c r="D48" s="3">
         <v>7</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3">
+        <v>8</v>
+      </c>
       <c r="F48" s="3">
         <v>16</v>
       </c>
@@ -2824,7 +2918,9 @@
       <c r="D49" s="3">
         <v>12</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
       <c r="F49" s="3">
         <v>16</v>
       </c>
@@ -2855,7 +2951,9 @@
       <c r="D50" s="3">
         <v>6</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3">
+        <v>9</v>
+      </c>
       <c r="F50" s="3">
         <v>18</v>
       </c>
@@ -2884,7 +2982,9 @@
       <c r="D51" s="3">
         <v>9</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3">
+        <v>13</v>
+      </c>
       <c r="F51" s="3">
         <v>18</v>
       </c>
@@ -2915,7 +3015,9 @@
       <c r="D52" s="3">
         <v>9</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
       <c r="F52" s="3">
         <v>14</v>
       </c>
@@ -2946,7 +3048,9 @@
       <c r="D53" s="3">
         <v>5</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="3">
+        <v>6</v>
+      </c>
       <c r="F53" s="3">
         <v>14</v>
       </c>
@@ -2975,7 +3079,9 @@
       <c r="D54" s="3">
         <v>8</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="3">
+        <v>6</v>
+      </c>
       <c r="F54" s="3">
         <v>14</v>
       </c>
@@ -3004,7 +3110,9 @@
       <c r="D55" s="3">
         <v>7</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
       <c r="F55" s="3">
         <v>14</v>
       </c>
@@ -3035,7 +3143,9 @@
       <c r="D56" s="3">
         <v>15</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3">
+        <v>8</v>
+      </c>
       <c r="F56" s="3">
         <v>16</v>
       </c>
@@ -3066,7 +3176,9 @@
       <c r="D57" s="3">
         <v>9</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="3">
+        <v>9</v>
+      </c>
       <c r="F57" s="3">
         <v>14</v>
       </c>
@@ -3095,7 +3207,9 @@
       <c r="D58" s="3">
         <v>7</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3">
+        <v>9</v>
+      </c>
       <c r="F58" s="3">
         <v>14</v>
       </c>
@@ -3126,7 +3240,9 @@
       <c r="D59" s="3">
         <v>9</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3">
+        <v>10</v>
+      </c>
       <c r="F59" s="3">
         <v>14</v>
       </c>
@@ -3155,7 +3271,9 @@
       <c r="D60" s="3">
         <v>0</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
       <c r="F60" s="3">
         <v>12</v>
       </c>
@@ -3184,7 +3302,9 @@
       <c r="D61" s="3">
         <v>11</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
       <c r="F61" s="3">
         <v>12</v>
       </c>
@@ -3213,7 +3333,9 @@
       <c r="D62" s="3">
         <v>17</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3">
+        <v>15</v>
+      </c>
       <c r="F62" s="3">
         <v>14</v>
       </c>
@@ -3244,7 +3366,9 @@
       <c r="D63" s="3">
         <v>9</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3">
+        <v>7</v>
+      </c>
       <c r="F63" s="3">
         <v>16</v>
       </c>
@@ -3273,7 +3397,9 @@
       <c r="D64" s="3">
         <v>5</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3">
+        <v>7</v>
+      </c>
       <c r="F64" s="3">
         <v>16</v>
       </c>
@@ -3304,7 +3430,9 @@
       <c r="D65" s="3">
         <v>10</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3">
+        <v>9</v>
+      </c>
       <c r="F65" s="3">
         <v>15</v>
       </c>
@@ -3333,7 +3461,9 @@
       <c r="D66" s="3">
         <v>5</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3">
+        <v>6</v>
+      </c>
       <c r="F66" s="3">
         <v>12</v>
       </c>
@@ -3364,7 +3494,9 @@
       <c r="D67" s="3">
         <v>8</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3">
+        <v>9</v>
+      </c>
       <c r="F67" s="3">
         <v>12</v>
       </c>
@@ -3393,7 +3525,9 @@
       <c r="D68" s="3">
         <v>8</v>
       </c>
-      <c r="E68" s="3"/>
+      <c r="E68" s="3">
+        <v>7</v>
+      </c>
       <c r="F68" s="3">
         <v>14</v>
       </c>
@@ -3424,7 +3558,9 @@
       <c r="D69" s="3">
         <v>13</v>
       </c>
-      <c r="E69" s="3"/>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
       <c r="F69" s="3">
         <v>18</v>
       </c>
@@ -3453,7 +3589,9 @@
       <c r="D70" s="3">
         <v>13</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="E70" s="3">
+        <v>6</v>
+      </c>
       <c r="F70" s="3">
         <v>15</v>
       </c>
@@ -3484,7 +3622,9 @@
       <c r="D71" s="3">
         <v>9</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3">
+        <v>7</v>
+      </c>
       <c r="F71" s="3">
         <v>16</v>
       </c>
@@ -3515,7 +3655,9 @@
       <c r="D72" s="3">
         <v>11</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3">
+        <v>10</v>
+      </c>
       <c r="F72" s="3">
         <v>18</v>
       </c>
@@ -3546,7 +3688,9 @@
       <c r="D73" s="3">
         <v>8</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3">
+        <v>12</v>
+      </c>
       <c r="F73" s="3">
         <v>14</v>
       </c>
@@ -3577,7 +3721,9 @@
       <c r="D74" s="3">
         <v>6</v>
       </c>
-      <c r="E74" s="3"/>
+      <c r="E74" s="3">
+        <v>8</v>
+      </c>
       <c r="F74" s="3">
         <v>15</v>
       </c>
@@ -3608,7 +3754,9 @@
       <c r="D75" s="3">
         <v>14</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="3">
+        <v>10</v>
+      </c>
       <c r="F75" s="3">
         <v>17</v>
       </c>
@@ -3637,7 +3785,9 @@
       <c r="D76" s="3">
         <v>15</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="3">
+        <v>12</v>
+      </c>
       <c r="F76" s="3">
         <v>15</v>
       </c>
@@ -3668,7 +3818,9 @@
       <c r="D77" s="3">
         <v>14</v>
       </c>
-      <c r="E77" s="3"/>
+      <c r="E77" s="3">
+        <v>12</v>
+      </c>
       <c r="F77" s="3">
         <v>16</v>
       </c>
@@ -3697,7 +3849,9 @@
       <c r="D78" s="3">
         <v>15</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
       <c r="F78" s="3">
         <v>14</v>
       </c>
@@ -3726,7 +3880,9 @@
       <c r="D79" s="3">
         <v>7</v>
       </c>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3">
+        <v>7</v>
+      </c>
       <c r="F79" s="3">
         <v>15</v>
       </c>
@@ -3755,7 +3911,9 @@
       <c r="D80" s="3">
         <v>11</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3">
+        <v>11</v>
+      </c>
       <c r="F80" s="3">
         <v>15</v>
       </c>
@@ -3784,7 +3942,9 @@
       <c r="D81" s="3">
         <v>0</v>
       </c>
-      <c r="E81" s="3"/>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -3815,7 +3975,9 @@
       <c r="D82" s="3">
         <v>13</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3">
+        <v>9</v>
+      </c>
       <c r="F82" s="3">
         <v>14</v>
       </c>
@@ -3844,7 +4006,9 @@
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3875,7 +4039,9 @@
       <c r="D84" s="3">
         <v>9</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3">
+        <v>12</v>
+      </c>
       <c r="F84" s="3">
         <v>17</v>
       </c>
@@ -3906,7 +4072,9 @@
       <c r="D85" s="3">
         <v>11</v>
       </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="3">
+        <v>9</v>
+      </c>
       <c r="F85" s="3">
         <v>17</v>
       </c>
@@ -3937,7 +4105,9 @@
       <c r="D86" s="3">
         <v>9</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="3">
+        <v>9</v>
+      </c>
       <c r="F86" s="3">
         <v>16</v>
       </c>
@@ -3966,7 +4136,9 @@
       <c r="D87" s="3">
         <v>15</v>
       </c>
-      <c r="E87" s="3"/>
+      <c r="E87" s="3">
+        <v>12</v>
+      </c>
       <c r="F87" s="3">
         <v>15</v>
       </c>
@@ -3995,7 +4167,9 @@
       <c r="D88" s="3">
         <v>13</v>
       </c>
-      <c r="E88" s="3"/>
+      <c r="E88" s="3">
+        <v>10</v>
+      </c>
       <c r="F88" s="3">
         <v>15</v>
       </c>
@@ -4024,7 +4198,9 @@
       <c r="D89" s="3">
         <v>13</v>
       </c>
-      <c r="E89" s="3"/>
+      <c r="E89" s="3">
+        <v>10</v>
+      </c>
       <c r="F89" s="3">
         <v>16</v>
       </c>
@@ -4053,7 +4229,9 @@
       <c r="D90" s="3">
         <v>14</v>
       </c>
-      <c r="E90" s="3"/>
+      <c r="E90" s="3">
+        <v>11</v>
+      </c>
       <c r="F90" s="3">
         <v>16</v>
       </c>
@@ -4082,7 +4260,9 @@
       <c r="D91" s="3">
         <v>11</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="3">
+        <v>12</v>
+      </c>
       <c r="F91" s="3">
         <v>16</v>
       </c>
@@ -4111,7 +4291,9 @@
       <c r="D92" s="3">
         <v>0</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
       <c r="F92" s="3">
         <v>0</v>
       </c>
@@ -4140,7 +4322,9 @@
       <c r="D93" s="3">
         <v>13</v>
       </c>
-      <c r="E93" s="3"/>
+      <c r="E93" s="3">
+        <v>9</v>
+      </c>
       <c r="F93" s="3">
         <v>16</v>
       </c>
@@ -4169,7 +4353,9 @@
       <c r="D94" s="3">
         <v>8</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="3">
+        <v>6</v>
+      </c>
       <c r="F94" s="3">
         <v>15</v>
       </c>
@@ -4198,7 +4384,9 @@
       <c r="D95" s="3">
         <v>11</v>
       </c>
-      <c r="E95" s="3"/>
+      <c r="E95" s="3">
+        <v>6</v>
+      </c>
       <c r="F95" s="3">
         <v>15</v>
       </c>
@@ -4227,7 +4415,9 @@
       <c r="D96" s="3">
         <v>13</v>
       </c>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3">
+        <v>9</v>
+      </c>
       <c r="F96" s="3">
         <v>16</v>
       </c>
@@ -4256,7 +4446,9 @@
       <c r="D97" s="3">
         <v>13</v>
       </c>
-      <c r="E97" s="3"/>
+      <c r="E97" s="3">
+        <v>9</v>
+      </c>
       <c r="F97" s="3">
         <v>15</v>
       </c>
@@ -4285,7 +4477,9 @@
       <c r="D98" s="3">
         <v>8</v>
       </c>
-      <c r="E98" s="3"/>
+      <c r="E98" s="3">
+        <v>6</v>
+      </c>
       <c r="F98" s="3">
         <v>15</v>
       </c>
@@ -4314,7 +4508,9 @@
       <c r="D99" s="3">
         <v>0</v>
       </c>
-      <c r="E99" s="3"/>
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
       <c r="F99" s="3">
         <v>0</v>
       </c>
@@ -4343,7 +4539,9 @@
       <c r="D100" s="3">
         <v>6</v>
       </c>
-      <c r="E100" s="3"/>
+      <c r="E100" s="3">
+        <v>13</v>
+      </c>
       <c r="F100" s="3">
         <v>15</v>
       </c>
@@ -4372,7 +4570,9 @@
       <c r="D101" s="3">
         <v>6</v>
       </c>
-      <c r="E101" s="3"/>
+      <c r="E101" s="3">
+        <v>8</v>
+      </c>
       <c r="F101" s="3">
         <v>15</v>
       </c>
@@ -4401,7 +4601,9 @@
       <c r="D102" s="3">
         <v>8</v>
       </c>
-      <c r="E102" s="3"/>
+      <c r="E102" s="3">
+        <v>13</v>
+      </c>
       <c r="F102" s="3">
         <v>16</v>
       </c>
@@ -4430,7 +4632,9 @@
       <c r="D103" s="3">
         <v>5</v>
       </c>
-      <c r="E103" s="3"/>
+      <c r="E103" s="3">
+        <v>9</v>
+      </c>
       <c r="F103" s="3">
         <v>16</v>
       </c>
@@ -4459,7 +4663,9 @@
       <c r="D104" s="3">
         <v>11</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3">
+        <v>8</v>
+      </c>
       <c r="F104" s="3">
         <v>16</v>
       </c>
@@ -4488,7 +4694,9 @@
       <c r="D105" s="3">
         <v>11</v>
       </c>
-      <c r="E105" s="3"/>
+      <c r="E105" s="3">
+        <v>10</v>
+      </c>
       <c r="F105" s="3">
         <v>15</v>
       </c>
@@ -4517,7 +4725,9 @@
       <c r="D106" s="3">
         <v>11</v>
       </c>
-      <c r="E106" s="3"/>
+      <c r="E106" s="3">
+        <v>7</v>
+      </c>
       <c r="F106" s="3">
         <v>16</v>
       </c>
@@ -4546,7 +4756,9 @@
       <c r="D107" s="3">
         <v>12</v>
       </c>
-      <c r="E107" s="3"/>
+      <c r="E107" s="3">
+        <v>12</v>
+      </c>
       <c r="F107" s="3">
         <v>16</v>
       </c>
@@ -4575,7 +4787,9 @@
       <c r="D108" s="3">
         <v>13</v>
       </c>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3">
+        <v>13</v>
+      </c>
       <c r="F108" s="3">
         <v>16</v>
       </c>
@@ -4604,7 +4818,9 @@
       <c r="D109" s="3">
         <v>7</v>
       </c>
-      <c r="E109" s="3"/>
+      <c r="E109" s="3">
+        <v>9</v>
+      </c>
       <c r="F109" s="3">
         <v>15</v>
       </c>
@@ -4633,7 +4849,9 @@
       <c r="D110" s="3">
         <v>12</v>
       </c>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3">
+        <v>10</v>
+      </c>
       <c r="F110" s="3">
         <v>16</v>
       </c>
@@ -4662,7 +4880,9 @@
       <c r="D111" s="3">
         <v>11</v>
       </c>
-      <c r="E111" s="3"/>
+      <c r="E111" s="3">
+        <v>7</v>
+      </c>
       <c r="F111" s="3">
         <v>5</v>
       </c>
@@ -4691,7 +4911,9 @@
       <c r="D112" s="3">
         <v>0</v>
       </c>
-      <c r="E112" s="3"/>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
       <c r="F112" s="3">
         <v>0</v>
       </c>
@@ -4722,7 +4944,9 @@
       <c r="D113" s="3">
         <v>10</v>
       </c>
-      <c r="E113" s="3"/>
+      <c r="E113" s="3">
+        <v>8</v>
+      </c>
       <c r="F113" s="3">
         <v>16</v>
       </c>
@@ -4751,7 +4975,9 @@
       <c r="D114" s="3">
         <v>0</v>
       </c>
-      <c r="E114" s="3"/>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
       <c r="F114" s="3">
         <v>0</v>
       </c>
@@ -4782,7 +5008,9 @@
       <c r="D115" s="3">
         <v>12</v>
       </c>
-      <c r="E115" s="3"/>
+      <c r="E115" s="3">
+        <v>12</v>
+      </c>
       <c r="F115" s="3">
         <v>11</v>
       </c>
@@ -4813,7 +5041,9 @@
       <c r="D116" s="3">
         <v>10</v>
       </c>
-      <c r="E116" s="3"/>
+      <c r="E116" s="3">
+        <v>8</v>
+      </c>
       <c r="F116" s="3">
         <v>13</v>
       </c>
@@ -4842,7 +5072,9 @@
       <c r="D117" s="3">
         <v>13</v>
       </c>
-      <c r="E117" s="3"/>
+      <c r="E117" s="3">
+        <v>10</v>
+      </c>
       <c r="F117" s="3">
         <v>14</v>
       </c>
@@ -4871,7 +5103,9 @@
       <c r="D118" s="3">
         <v>7</v>
       </c>
-      <c r="E118" s="3"/>
+      <c r="E118" s="3">
+        <v>7</v>
+      </c>
       <c r="F118" s="3">
         <v>14</v>
       </c>
@@ -4900,7 +5134,9 @@
       <c r="D119" s="3">
         <v>10</v>
       </c>
-      <c r="E119" s="3"/>
+      <c r="E119" s="3">
+        <v>10</v>
+      </c>
       <c r="F119" s="3">
         <v>16</v>
       </c>
@@ -4929,7 +5165,9 @@
       <c r="D120" s="3">
         <v>7</v>
       </c>
-      <c r="E120" s="3"/>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
       <c r="F120" s="3">
         <v>0</v>
       </c>
@@ -4960,7 +5198,9 @@
       <c r="D121" s="3">
         <v>13</v>
       </c>
-      <c r="E121" s="3"/>
+      <c r="E121" s="3">
+        <v>8</v>
+      </c>
       <c r="F121" s="3">
         <v>0</v>
       </c>
@@ -4991,7 +5231,9 @@
       <c r="D122" s="3">
         <v>7</v>
       </c>
-      <c r="E122" s="3"/>
+      <c r="E122" s="3">
+        <v>11</v>
+      </c>
       <c r="F122" s="3">
         <v>15</v>
       </c>
@@ -5020,7 +5262,9 @@
       <c r="D123" s="3">
         <v>7</v>
       </c>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3">
+        <v>5</v>
+      </c>
       <c r="F123" s="3">
         <v>13</v>
       </c>
@@ -5051,7 +5295,9 @@
       <c r="D124" s="3">
         <v>9</v>
       </c>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3">
+        <v>9</v>
+      </c>
       <c r="F124" s="3">
         <v>0</v>
       </c>
@@ -5082,7 +5328,9 @@
       <c r="D125" s="3">
         <v>0</v>
       </c>
-      <c r="E125" s="3"/>
+      <c r="E125" s="3">
+        <v>13</v>
+      </c>
       <c r="F125" s="3">
         <v>0</v>
       </c>
@@ -5113,7 +5361,9 @@
       <c r="D126" s="3">
         <v>9</v>
       </c>
-      <c r="E126" s="3"/>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
       <c r="F126" s="3">
         <v>0</v>
       </c>
@@ -5144,7 +5394,9 @@
       <c r="D127" s="3">
         <v>11</v>
       </c>
-      <c r="E127" s="3"/>
+      <c r="E127" s="3">
+        <v>6</v>
+      </c>
       <c r="F127" s="3">
         <v>15</v>
       </c>
@@ -5173,7 +5425,9 @@
       <c r="D128" s="3">
         <v>11</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3">
+        <v>11</v>
+      </c>
       <c r="F128" s="3">
         <v>13</v>
       </c>
@@ -5204,7 +5458,9 @@
       <c r="D129" s="3">
         <v>5</v>
       </c>
-      <c r="E129" s="3"/>
+      <c r="E129" s="3">
+        <v>0</v>
+      </c>
       <c r="F129" s="3">
         <v>14</v>
       </c>
@@ -5235,7 +5491,9 @@
       <c r="D130" s="3">
         <v>7</v>
       </c>
-      <c r="E130" s="3"/>
+      <c r="E130" s="3">
+        <v>6</v>
+      </c>
       <c r="F130" s="3">
         <v>0</v>
       </c>
@@ -5264,7 +5522,9 @@
       <c r="D131" s="3">
         <v>13</v>
       </c>
-      <c r="E131" s="3"/>
+      <c r="E131" s="3">
+        <v>13</v>
+      </c>
       <c r="F131" s="3">
         <v>16</v>
       </c>
@@ -5293,7 +5553,9 @@
       <c r="D132" s="3">
         <v>11</v>
       </c>
-      <c r="E132" s="3"/>
+      <c r="E132" s="3">
+        <v>5</v>
+      </c>
       <c r="F132" s="3">
         <v>13</v>
       </c>
@@ -5322,7 +5584,9 @@
       <c r="D133" s="3">
         <v>14</v>
       </c>
-      <c r="E133" s="3"/>
+      <c r="E133" s="3">
+        <v>14</v>
+      </c>
       <c r="F133" s="3">
         <v>14</v>
       </c>
@@ -5353,7 +5617,9 @@
       <c r="D134" s="3">
         <v>0</v>
       </c>
-      <c r="E134" s="3"/>
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
       <c r="F134" s="3">
         <v>0</v>
       </c>
@@ -5382,7 +5648,9 @@
       <c r="D135" s="3">
         <v>8</v>
       </c>
-      <c r="E135" s="3"/>
+      <c r="E135" s="3">
+        <v>13</v>
+      </c>
       <c r="F135" s="3">
         <v>14</v>
       </c>
@@ -5411,7 +5679,9 @@
       <c r="D136" s="3">
         <v>12</v>
       </c>
-      <c r="E136" s="3"/>
+      <c r="E136" s="3">
+        <v>7</v>
+      </c>
       <c r="F136" s="3">
         <v>13</v>
       </c>
@@ -5440,7 +5710,9 @@
       <c r="D137" s="3">
         <v>6</v>
       </c>
-      <c r="E137" s="3"/>
+      <c r="E137" s="3">
+        <v>4</v>
+      </c>
       <c r="F137" s="3">
         <v>16</v>
       </c>
@@ -5471,7 +5743,9 @@
       <c r="D138" s="3">
         <v>0</v>
       </c>
-      <c r="E138" s="3"/>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
@@ -5502,7 +5776,9 @@
       <c r="D139" s="3">
         <v>9</v>
       </c>
-      <c r="E139" s="3"/>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
       <c r="F139" s="3">
         <v>11</v>
       </c>
@@ -5533,7 +5809,9 @@
       <c r="D140" s="3">
         <v>10</v>
       </c>
-      <c r="E140" s="3"/>
+      <c r="E140" s="3">
+        <v>10</v>
+      </c>
       <c r="F140" s="3">
         <v>16</v>
       </c>
@@ -5562,7 +5840,9 @@
       <c r="D141" s="3">
         <v>5</v>
       </c>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3">
+        <v>9</v>
+      </c>
       <c r="F141" s="3">
         <v>11</v>
       </c>
@@ -5591,7 +5871,9 @@
       <c r="D142" s="3">
         <v>12</v>
       </c>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3">
+        <v>10</v>
+      </c>
       <c r="F142" s="3">
         <v>16</v>
       </c>
@@ -5622,7 +5904,9 @@
       <c r="D143" s="3">
         <v>0</v>
       </c>
-      <c r="E143" s="3"/>
+      <c r="E143" s="3">
+        <v>0</v>
+      </c>
       <c r="F143" s="3">
         <v>0</v>
       </c>
@@ -5651,7 +5935,9 @@
       <c r="D144" s="3">
         <v>11</v>
       </c>
-      <c r="E144" s="3"/>
+      <c r="E144" s="3">
+        <v>5</v>
+      </c>
       <c r="F144" s="3">
         <v>0</v>
       </c>
@@ -5682,7 +5968,9 @@
       <c r="D145" s="3">
         <v>8</v>
       </c>
-      <c r="E145" s="3"/>
+      <c r="E145" s="3">
+        <v>10</v>
+      </c>
       <c r="F145" s="3">
         <v>15</v>
       </c>
@@ -5711,7 +5999,9 @@
       <c r="D146" s="3">
         <v>7</v>
       </c>
-      <c r="E146" s="3"/>
+      <c r="E146" s="3">
+        <v>9</v>
+      </c>
       <c r="F146" s="3">
         <v>14</v>
       </c>
@@ -5742,7 +6032,9 @@
       <c r="D147" s="3">
         <v>8</v>
       </c>
-      <c r="E147" s="3"/>
+      <c r="E147" s="3">
+        <v>7</v>
+      </c>
       <c r="F147" s="3">
         <v>11</v>
       </c>
@@ -5771,7 +6063,9 @@
       <c r="D148" s="3">
         <v>6</v>
       </c>
-      <c r="E148" s="3"/>
+      <c r="E148" s="3">
+        <v>0</v>
+      </c>
       <c r="F148" s="3">
         <v>0</v>
       </c>
@@ -5802,7 +6096,9 @@
       <c r="D149" s="3">
         <v>14</v>
       </c>
-      <c r="E149" s="3"/>
+      <c r="E149" s="3">
+        <v>13</v>
+      </c>
       <c r="F149" s="3">
         <v>16</v>
       </c>
@@ -5831,7 +6127,9 @@
       <c r="D150" s="3">
         <v>11</v>
       </c>
-      <c r="E150" s="3"/>
+      <c r="E150" s="3">
+        <v>6</v>
+      </c>
       <c r="F150" s="3">
         <v>16</v>
       </c>
@@ -5862,7 +6160,9 @@
       <c r="D151" s="3">
         <v>12</v>
       </c>
-      <c r="E151" s="3"/>
+      <c r="E151" s="3">
+        <v>9</v>
+      </c>
       <c r="F151" s="3">
         <v>14</v>
       </c>
@@ -5891,7 +6191,9 @@
       <c r="D152" s="3">
         <v>10</v>
       </c>
-      <c r="E152" s="3"/>
+      <c r="E152" s="3">
+        <v>5</v>
+      </c>
       <c r="F152" s="3">
         <v>13</v>
       </c>
@@ -5922,7 +6224,9 @@
       <c r="D153" s="3">
         <v>15</v>
       </c>
-      <c r="E153" s="3"/>
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
       <c r="F153" s="3">
         <v>0</v>
       </c>
@@ -5951,7 +6255,9 @@
       <c r="D154" s="3">
         <v>0</v>
       </c>
-      <c r="E154" s="3"/>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
       <c r="F154" s="3">
         <v>0</v>
       </c>
@@ -5980,7 +6286,9 @@
       <c r="D155" s="3">
         <v>13</v>
       </c>
-      <c r="E155" s="3"/>
+      <c r="E155" s="3">
+        <v>7</v>
+      </c>
       <c r="F155" s="3">
         <v>0</v>
       </c>
@@ -6009,7 +6317,9 @@
       <c r="D156" s="3">
         <v>0</v>
       </c>
-      <c r="E156" s="3"/>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
       <c r="F156" s="3">
         <v>0</v>
       </c>
